--- a/17 - Análises de Eventos/Análise - Buscar por Colaboradores + Transportar.xlsx
+++ b/17 - Análises de Eventos/Análise - Buscar por Colaboradores + Transportar.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t xml:space="preserve">Capacidades </t>
   </si>
@@ -52,25 +52,31 @@
     <t>FB</t>
   </si>
   <si>
-    <t>Associado divulga necessidade de doações</t>
+    <t>Associado divulga necessidade de colaboradores</t>
   </si>
   <si>
     <t>x</t>
   </si>
   <si>
-    <t>Associado contata antigos colaboradores</t>
+    <t>Associado contata colaboradores</t>
   </si>
   <si>
     <t>x(1)</t>
   </si>
   <si>
-    <t>Associado contata possíveis novos colaboradores</t>
-  </si>
-  <si>
-    <t>Transportar associados, doações e artigos necessários para realização da ação</t>
-  </si>
-  <si>
-    <t>Associado transporta outros associados, doações e artigos para local da ação</t>
+    <t>Transportar associados, doações e colaboradores necessários para realização da ação</t>
+  </si>
+  <si>
+    <t>Associado transporta outros associados</t>
+  </si>
+  <si>
+    <t>Associado transporta colaboradores</t>
+  </si>
+  <si>
+    <t>x(2)</t>
+  </si>
+  <si>
+    <t>Associado transporta doações</t>
   </si>
 </sst>
 </file>
@@ -103,9 +109,13 @@
     </font>
     <font>
       <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
     <font>
       <sz val="10.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="6">
@@ -262,7 +272,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="39">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -295,7 +305,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="12" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -310,30 +320,40 @@
     <xf borderId="11" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
     <xf borderId="11" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="13" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="11" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="8" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="2" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="13" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
     <xf borderId="11" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
+    <xf borderId="13" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="11" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="11" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -633,131 +653,155 @@
         <v>13</v>
       </c>
       <c r="E3" s="20"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="21" t="s">
+      <c r="F3" s="18"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="18" t="s">
         <v>14</v>
       </c>
       <c r="I3" s="20"/>
-      <c r="J3" s="23"/>
+      <c r="J3" s="22"/>
       <c r="K3" s="5"/>
     </row>
     <row r="4">
-      <c r="B4" s="24"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
       <c r="C4" s="18">
         <v>2.0</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="25"/>
+      <c r="E4" s="23"/>
       <c r="F4" s="20"/>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="20"/>
+      <c r="H4" s="21"/>
       <c r="I4" s="20"/>
-      <c r="J4" s="26"/>
+      <c r="J4" s="24"/>
       <c r="K4" s="11"/>
     </row>
     <row r="5">
-      <c r="A5" s="10"/>
-      <c r="B5" s="12"/>
+      <c r="A5" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>12</v>
+      </c>
       <c r="C5" s="18">
         <v>3.0</v>
       </c>
-      <c r="D5" s="19" t="s">
-        <v>17</v>
+      <c r="D5" s="23" t="s">
+        <v>18</v>
       </c>
       <c r="E5" s="27"/>
       <c r="F5" s="20"/>
-      <c r="G5" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="20"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18" t="s">
+        <v>14</v>
+      </c>
       <c r="I5" s="20"/>
-      <c r="J5" s="26"/>
+      <c r="J5" s="24"/>
       <c r="K5" s="11"/>
     </row>
     <row r="6">
-      <c r="A6" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="29" t="s">
-        <v>12</v>
-      </c>
+      <c r="A6" s="28"/>
+      <c r="B6" s="28"/>
       <c r="C6" s="29">
-        <v>1.0</v>
-      </c>
-      <c r="D6" s="29" t="s">
+        <v>4.0</v>
+      </c>
+      <c r="D6" s="30" t="s">
         <v>19</v>
       </c>
       <c r="E6" s="29"/>
       <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29" t="s">
-        <v>14</v>
-      </c>
+      <c r="G6" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="29"/>
       <c r="I6" s="29"/>
-      <c r="J6" s="30"/>
+      <c r="J6" s="31"/>
       <c r="K6" s="5"/>
     </row>
-    <row r="7">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="29">
+        <v>5.0</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="33"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="33"/>
+      <c r="R7" s="33"/>
+      <c r="S7" s="33"/>
+      <c r="T7" s="33"/>
+      <c r="U7" s="33"/>
+      <c r="V7" s="33"/>
+      <c r="W7" s="33"/>
+      <c r="X7" s="33"/>
+      <c r="Y7" s="33"/>
+      <c r="Z7" s="33"/>
     </row>
     <row r="8">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
+      <c r="A8" s="34"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
     </row>
     <row r="9">
-      <c r="A9" s="16"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="34"/>
+      <c r="A9" s="34"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="38"/>
     </row>
     <row r="18">
-      <c r="F18" s="34"/>
+      <c r="F18" s="38"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="15">
     <mergeCell ref="J1:K2"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
     <mergeCell ref="J9:K9"/>
-    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:I1"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
   </mergeCells>
   <printOptions gridLines="1" horizontalCentered="1"/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
